--- a/Programas e insumos/Parametros fractales.xlsx
+++ b/Programas e insumos/Parametros fractales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86693F28-3292-47E3-B5BA-7229A8FC63AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F18D9-3269-4E57-823A-974DE3D84C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>Estrategia</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>SELL</t>
-  </si>
-  <si>
-    <t>FDX</t>
   </si>
   <si>
     <t>FI1 – FD1</t>
@@ -521,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -585,16 +582,12 @@
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -635,7 +628,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -676,7 +669,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -717,7 +710,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -758,7 +751,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -799,7 +792,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -840,7 +833,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -881,7 +874,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -893,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -922,7 +915,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -934,7 +927,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>

--- a/Programas e insumos/Parametros fractales.xlsx
+++ b/Programas e insumos/Parametros fractales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F18D9-3269-4E57-823A-974DE3D84C38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE4750-1129-410E-B06B-AA2A6CFDE4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -582,12 +582,16 @@
       <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1">
+        <v>-4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -620,15 +624,15 @@
         <v>21</v>
       </c>
       <c r="L3" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="M3" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -637,10 +641,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -652,24 +656,24 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="1">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M4" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -702,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="M5" s="1">
         <v>-1</v>
@@ -710,7 +714,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -743,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="M6" s="1">
         <v>-1</v>
@@ -751,7 +755,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -784,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="1">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="M7" s="1">
         <v>-1</v>
@@ -792,7 +796,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -825,15 +829,15 @@
         <v>21</v>
       </c>
       <c r="L8" s="1">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="M8" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -842,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -857,24 +861,24 @@
         <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="1">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="M9" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -901,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>21</v>
@@ -915,7 +919,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -927,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -942,17 +946,13 @@
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="1">
-        <v>-4</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-1</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Programas e insumos/Parametros fractales.xlsx
+++ b/Programas e insumos/Parametros fractales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE4750-1129-410E-B06B-AA2A6CFDE4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173ADA8B-50DF-4C2E-8115-1294D2942ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>Estrategia</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Periodo fin</t>
   </si>
   <si>
-    <t>FIR</t>
-  </si>
-  <si>
     <t>CLOSE</t>
   </si>
   <si>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t>Función compra</t>
+  </si>
+  <si>
+    <t>FIRX</t>
+  </si>
+  <si>
+    <t>FDX</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -550,37 +553,37 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="1">
         <v>-4</v>
@@ -591,37 +594,37 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L3" s="1">
         <v>-5</v>
@@ -632,37 +635,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="1">
         <v>-4</v>
@@ -673,37 +676,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L5" s="1">
         <v>-5</v>
@@ -714,37 +717,37 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L6" s="1">
         <v>-6</v>
@@ -755,37 +758,37 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L7" s="1">
         <v>-3</v>
@@ -796,37 +799,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L8" s="1">
         <v>-6</v>
@@ -837,37 +840,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L9" s="1">
         <v>-4</v>
@@ -878,37 +881,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="1">
         <v>-4</v>
@@ -919,40 +922,44 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Programas e insumos/Parametros fractales.xlsx
+++ b/Programas e insumos/Parametros fractales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173ADA8B-50DF-4C2E-8115-1294D2942ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F4A6C-8B7B-41B7-9961-A771CE2CCE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8724" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros fractales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>Estrategia</t>
   </si>
@@ -98,43 +98,13 @@
     <t>SELL</t>
   </si>
   <si>
-    <t>FI1 – FD1</t>
-  </si>
-  <si>
-    <t>FI2 – FD2</t>
-  </si>
-  <si>
-    <t>FI3 – FD3</t>
-  </si>
-  <si>
-    <t>FI4 – FD4</t>
-  </si>
-  <si>
-    <t>FI5 – FD5</t>
-  </si>
-  <si>
-    <t>FI5 – FD6</t>
-  </si>
-  <si>
-    <t>FI7 – FD7</t>
-  </si>
-  <si>
-    <t>FI8 – FD8</t>
-  </si>
-  <si>
     <t>OPEN</t>
   </si>
   <si>
-    <t>FI9 – FD9</t>
-  </si>
-  <si>
     <t>Función compra</t>
   </si>
   <si>
     <t>FIRX</t>
-  </si>
-  <si>
-    <t>FDX</t>
   </si>
 </sst>
 </file>
@@ -521,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -552,8 +522,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -593,8 +563,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -634,8 +604,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -675,8 +645,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -716,8 +686,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -757,8 +727,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -798,8 +768,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -839,8 +809,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -852,7 +822,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -880,8 +850,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -893,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
@@ -922,7 +892,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -954,12 +924,8 @@
       <c r="K11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Programas e insumos/Parametros fractales.xlsx
+++ b/Programas e insumos/Parametros fractales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDSG\Wissen\GitHub\Swell_2_Optimizacion_estrategias\Programas e insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F4A6C-8B7B-41B7-9961-A771CE2CCE2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CC8C19-3BE8-4AC8-8AEF-2D997E79394F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8724" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{7CF3DCDF-7C8E-4A43-8556-C04217A46A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros fractales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>Estrategia</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>FIRX</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>FDX</t>
   </si>
 </sst>
 </file>
@@ -895,31 +901,31 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
